--- a/PROYECTO30-08/personas.xlsx
+++ b/PROYECTO30-08/personas.xlsx
@@ -2,27 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="15" windowWidth="28800" windowHeight="16185" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -43,14 +50,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -408,18 +418,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -472,9 +482,9 @@
       <c r="C2" t="n">
         <v>18</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>espirituvillart07@gmail.com</t>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>tevis_ev@hotmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -507,7 +517,7 @@
       <c r="C3" t="n">
         <v>18</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>abigailotaku@gmail.com</t>
         </is>
@@ -542,7 +552,7 @@
       <c r="C4" t="n">
         <v>18</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>eliagonzalescastro@gmail.com</t>
         </is>
@@ -598,7 +608,47 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>abi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25072005abigail@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>938655899</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>25/07/2005</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>